--- a/output/key_val2.xlsx
+++ b/output/key_val2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="67">
   <si>
     <t>STEP NUMBER</t>
   </si>
@@ -157,21 +157,18 @@
     <t>while</t>
   </si>
   <si>
-    <t>key</t>
+    <t>pH</t>
   </si>
   <si>
     <t>flow logical parameter</t>
   </si>
   <si>
-    <t>logical operator</t>
+    <t>less than equal</t>
   </si>
   <si>
     <t>flow compared value</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>(minimization)  target</t>
   </si>
   <si>
@@ -181,12 +178,21 @@
     <t>if</t>
   </si>
   <si>
-    <t xml:space="preserve">value </t>
+    <t>l&lt;=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 </t>
   </si>
   <si>
     <t>else if</t>
   </si>
   <si>
+    <t>between</t>
+  </si>
+  <si>
+    <t>[8-12]</t>
+  </si>
+  <si>
     <t>else</t>
   </si>
   <si>
@@ -196,19 +202,19 @@
     <t>flow range</t>
   </si>
   <si>
-    <t>[range]</t>
+    <t>[1-7]</t>
   </si>
   <si>
     <t>flow operation</t>
   </si>
   <si>
-    <t>iteration_operation</t>
+    <t>+</t>
   </si>
   <si>
     <t>flow magnitude</t>
   </si>
   <si>
-    <t xml:space="preserve">magnitude </t>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -884,7 +890,7 @@
         <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -903,7 +909,7 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -950,7 +956,7 @@
         <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -961,7 +967,7 @@
         <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -983,7 +989,7 @@
         <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1060,7 +1066,7 @@
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1093,7 +1099,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1104,7 +1110,7 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1170,7 +1176,7 @@
         <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1181,7 +1187,7 @@
         <v>33</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1258,7 +1264,7 @@
         <v>33</v>
       </c>
       <c r="C65" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1277,10 +1283,10 @@
         <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C67" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1288,10 +1294,10 @@
         <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C68" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1299,10 +1305,10 @@
         <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:3">
